--- a/Resources/SplitRowsExcel.xlsx
+++ b/Resources/SplitRowsExcel.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>ID</x:t>
   </x:si>
@@ -523,112 +523,112 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="0" t="n">
+      <x:c r="A2" s="0">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="C2" s="0">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="0">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="n">
+      <x:c r="C3" s="0">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="0" t="n">
+      <x:c r="A4" s="0">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="n">
+      <x:c r="C4" s="0">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="0" t="n">
+      <x:c r="A5" s="0">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="n">
+      <x:c r="C5" s="0">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="0" t="n">
+      <x:c r="A6" s="0">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="n">
+      <x:c r="C6" s="0">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="0" t="n">
+      <x:c r="A7" s="0">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="n">
+      <x:c r="C7" s="0">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="0" t="n">
+      <x:c r="A8" s="0">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="n">
+      <x:c r="C8" s="0">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
-      <x:c r="A9" s="0" t="n">
+      <x:c r="A9" s="0">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="n">
+      <x:c r="C9" s="0">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
-      <x:c r="A10" s="0" t="n">
+      <x:c r="A10" s="0">
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="n">
+      <x:c r="C10" s="0">
         <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
-      <x:c r="A11" s="0" t="n">
+      <x:c r="A11" s="0">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="n">
+      <x:c r="C11" s="0">
         <x:v>19</x:v>
       </x:c>
     </x:row>
@@ -664,112 +664,112 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="0" t="n">
+      <x:c r="A2" s="0">
         <x:v>91</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="C2" s="0">
         <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="0">
         <x:v>92</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="n">
+      <x:c r="C3" s="0">
         <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="0" t="n">
+      <x:c r="A4" s="0">
         <x:v>93</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="n">
+      <x:c r="C4" s="0">
         <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="0" t="n">
+      <x:c r="A5" s="0">
         <x:v>94</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="n">
+      <x:c r="C5" s="0">
         <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="0" t="n">
+      <x:c r="A6" s="0">
         <x:v>95</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="n">
+      <x:c r="C6" s="0">
         <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="0" t="n">
+      <x:c r="A7" s="0">
         <x:v>96</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="n">
+      <x:c r="C7" s="0">
         <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="0" t="n">
+      <x:c r="A8" s="0">
         <x:v>97</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="n">
+      <x:c r="C8" s="0">
         <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
-      <x:c r="A9" s="0" t="n">
+      <x:c r="A9" s="0">
         <x:v>98</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="n">
+      <x:c r="C9" s="0">
         <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
-      <x:c r="A10" s="0" t="n">
+      <x:c r="A10" s="0">
         <x:v>99</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="n">
+      <x:c r="C10" s="0">
         <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
-      <x:c r="A11" s="0" t="n">
+      <x:c r="A11" s="0">
         <x:v>100</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="n">
+      <x:c r="C11" s="0">
         <x:v>183</x:v>
       </x:c>
     </x:row>
@@ -805,112 +805,112 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="0" t="n">
+      <x:c r="A2" s="0">
         <x:v>11</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="C2" s="0">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="0">
         <x:v>12</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="n">
+      <x:c r="C3" s="0">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="0" t="n">
+      <x:c r="A4" s="0">
         <x:v>13</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="n">
+      <x:c r="C4" s="0">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="0" t="n">
+      <x:c r="A5" s="0">
         <x:v>14</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="n">
+      <x:c r="C5" s="0">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="0" t="n">
+      <x:c r="A6" s="0">
         <x:v>15</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="n">
+      <x:c r="C6" s="0">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="0" t="n">
+      <x:c r="A7" s="0">
         <x:v>16</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="n">
+      <x:c r="C7" s="0">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="0" t="n">
+      <x:c r="A8" s="0">
         <x:v>17</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="n">
+      <x:c r="C8" s="0">
         <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
-      <x:c r="A9" s="0" t="n">
+      <x:c r="A9" s="0">
         <x:v>18</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="n">
+      <x:c r="C9" s="0">
         <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
-      <x:c r="A10" s="0" t="n">
+      <x:c r="A10" s="0">
         <x:v>19</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="n">
+      <x:c r="C10" s="0">
         <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
-      <x:c r="A11" s="0" t="n">
+      <x:c r="A11" s="0">
         <x:v>20</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="n">
+      <x:c r="C11" s="0">
         <x:v>23</x:v>
       </x:c>
     </x:row>
@@ -946,112 +946,112 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="0" t="n">
+      <x:c r="A2" s="0">
         <x:v>21</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="C2" s="0">
         <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="0">
         <x:v>22</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="n">
+      <x:c r="C3" s="0">
         <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="0" t="n">
+      <x:c r="A4" s="0">
         <x:v>23</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="n">
+      <x:c r="C4" s="0">
         <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="0" t="n">
+      <x:c r="A5" s="0">
         <x:v>24</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="n">
+      <x:c r="C5" s="0">
         <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="0" t="n">
+      <x:c r="A6" s="0">
         <x:v>25</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="n">
+      <x:c r="C6" s="0">
         <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="0" t="n">
+      <x:c r="A7" s="0">
         <x:v>26</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="n">
+      <x:c r="C7" s="0">
         <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="0" t="n">
+      <x:c r="A8" s="0">
         <x:v>27</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="n">
+      <x:c r="C8" s="0">
         <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
-      <x:c r="A9" s="0" t="n">
+      <x:c r="A9" s="0">
         <x:v>28</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="n">
+      <x:c r="C9" s="0">
         <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
-      <x:c r="A10" s="0" t="n">
+      <x:c r="A10" s="0">
         <x:v>29</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="n">
+      <x:c r="C10" s="0">
         <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
-      <x:c r="A11" s="0" t="n">
+      <x:c r="A11" s="0">
         <x:v>30</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="n">
+      <x:c r="C11" s="0">
         <x:v>43</x:v>
       </x:c>
     </x:row>
@@ -1087,112 +1087,112 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="0" t="n">
+      <x:c r="A2" s="0">
         <x:v>31</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="C2" s="0">
         <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="0">
         <x:v>32</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="n">
+      <x:c r="C3" s="0">
         <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="0" t="n">
+      <x:c r="A4" s="0">
         <x:v>33</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="n">
+      <x:c r="C4" s="0">
         <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="0" t="n">
+      <x:c r="A5" s="0">
         <x:v>34</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="n">
+      <x:c r="C5" s="0">
         <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="0" t="n">
+      <x:c r="A6" s="0">
         <x:v>35</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="n">
+      <x:c r="C6" s="0">
         <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="0" t="n">
+      <x:c r="A7" s="0">
         <x:v>36</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="n">
+      <x:c r="C7" s="0">
         <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="0" t="n">
+      <x:c r="A8" s="0">
         <x:v>37</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="n">
+      <x:c r="C8" s="0">
         <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
-      <x:c r="A9" s="0" t="n">
+      <x:c r="A9" s="0">
         <x:v>38</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="n">
+      <x:c r="C9" s="0">
         <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
-      <x:c r="A10" s="0" t="n">
+      <x:c r="A10" s="0">
         <x:v>39</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="n">
+      <x:c r="C10" s="0">
         <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
-      <x:c r="A11" s="0" t="n">
+      <x:c r="A11" s="0">
         <x:v>40</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="n">
+      <x:c r="C11" s="0">
         <x:v>63</x:v>
       </x:c>
     </x:row>
@@ -1228,112 +1228,112 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="0" t="n">
+      <x:c r="A2" s="0">
         <x:v>41</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="C2" s="0">
         <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="0">
         <x:v>42</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="n">
+      <x:c r="C3" s="0">
         <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="0" t="n">
+      <x:c r="A4" s="0">
         <x:v>43</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="n">
+      <x:c r="C4" s="0">
         <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="0" t="n">
+      <x:c r="A5" s="0">
         <x:v>44</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="n">
+      <x:c r="C5" s="0">
         <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="0" t="n">
+      <x:c r="A6" s="0">
         <x:v>45</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="n">
+      <x:c r="C6" s="0">
         <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="0" t="n">
+      <x:c r="A7" s="0">
         <x:v>46</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="n">
+      <x:c r="C7" s="0">
         <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="0" t="n">
+      <x:c r="A8" s="0">
         <x:v>47</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="n">
+      <x:c r="C8" s="0">
         <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
-      <x:c r="A9" s="0" t="n">
+      <x:c r="A9" s="0">
         <x:v>48</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="n">
+      <x:c r="C9" s="0">
         <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
-      <x:c r="A10" s="0" t="n">
+      <x:c r="A10" s="0">
         <x:v>49</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="n">
+      <x:c r="C10" s="0">
         <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
-      <x:c r="A11" s="0" t="n">
+      <x:c r="A11" s="0">
         <x:v>50</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="n">
+      <x:c r="C11" s="0">
         <x:v>83</x:v>
       </x:c>
     </x:row>
@@ -1369,112 +1369,112 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="0" t="n">
+      <x:c r="A2" s="0">
         <x:v>51</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="C2" s="0">
         <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="0">
         <x:v>52</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="n">
+      <x:c r="C3" s="0">
         <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="0" t="n">
+      <x:c r="A4" s="0">
         <x:v>53</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="n">
+      <x:c r="C4" s="0">
         <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="0" t="n">
+      <x:c r="A5" s="0">
         <x:v>54</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="n">
+      <x:c r="C5" s="0">
         <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="0" t="n">
+      <x:c r="A6" s="0">
         <x:v>55</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="n">
+      <x:c r="C6" s="0">
         <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="0" t="n">
+      <x:c r="A7" s="0">
         <x:v>56</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="n">
+      <x:c r="C7" s="0">
         <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="0" t="n">
+      <x:c r="A8" s="0">
         <x:v>57</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="n">
+      <x:c r="C8" s="0">
         <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
-      <x:c r="A9" s="0" t="n">
+      <x:c r="A9" s="0">
         <x:v>58</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="n">
+      <x:c r="C9" s="0">
         <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
-      <x:c r="A10" s="0" t="n">
+      <x:c r="A10" s="0">
         <x:v>59</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="n">
+      <x:c r="C10" s="0">
         <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
-      <x:c r="A11" s="0" t="n">
+      <x:c r="A11" s="0">
         <x:v>60</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="n">
+      <x:c r="C11" s="0">
         <x:v>103</x:v>
       </x:c>
     </x:row>
@@ -1510,112 +1510,112 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="0" t="n">
+      <x:c r="A2" s="0">
         <x:v>61</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="C2" s="0">
         <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="0">
         <x:v>62</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="n">
+      <x:c r="C3" s="0">
         <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="0" t="n">
+      <x:c r="A4" s="0">
         <x:v>63</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="n">
+      <x:c r="C4" s="0">
         <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="0" t="n">
+      <x:c r="A5" s="0">
         <x:v>64</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="n">
+      <x:c r="C5" s="0">
         <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="0" t="n">
+      <x:c r="A6" s="0">
         <x:v>65</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="n">
+      <x:c r="C6" s="0">
         <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="0" t="n">
+      <x:c r="A7" s="0">
         <x:v>66</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="n">
+      <x:c r="C7" s="0">
         <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="0" t="n">
+      <x:c r="A8" s="0">
         <x:v>67</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="n">
+      <x:c r="C8" s="0">
         <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
-      <x:c r="A9" s="0" t="n">
+      <x:c r="A9" s="0">
         <x:v>68</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="n">
+      <x:c r="C9" s="0">
         <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
-      <x:c r="A10" s="0" t="n">
+      <x:c r="A10" s="0">
         <x:v>69</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="n">
+      <x:c r="C10" s="0">
         <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
-      <x:c r="A11" s="0" t="n">
+      <x:c r="A11" s="0">
         <x:v>70</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="n">
+      <x:c r="C11" s="0">
         <x:v>123</x:v>
       </x:c>
     </x:row>
@@ -1651,112 +1651,112 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="0" t="n">
+      <x:c r="A2" s="0">
         <x:v>71</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="C2" s="0">
         <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="0">
         <x:v>72</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="n">
+      <x:c r="C3" s="0">
         <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="0" t="n">
+      <x:c r="A4" s="0">
         <x:v>73</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="n">
+      <x:c r="C4" s="0">
         <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="0" t="n">
+      <x:c r="A5" s="0">
         <x:v>74</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="n">
+      <x:c r="C5" s="0">
         <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="0" t="n">
+      <x:c r="A6" s="0">
         <x:v>75</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="n">
+      <x:c r="C6" s="0">
         <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="0" t="n">
+      <x:c r="A7" s="0">
         <x:v>76</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="n">
+      <x:c r="C7" s="0">
         <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="0" t="n">
+      <x:c r="A8" s="0">
         <x:v>77</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="n">
+      <x:c r="C8" s="0">
         <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
-      <x:c r="A9" s="0" t="n">
+      <x:c r="A9" s="0">
         <x:v>78</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="n">
+      <x:c r="C9" s="0">
         <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
-      <x:c r="A10" s="0" t="n">
+      <x:c r="A10" s="0">
         <x:v>79</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="n">
+      <x:c r="C10" s="0">
         <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
-      <x:c r="A11" s="0" t="n">
+      <x:c r="A11" s="0">
         <x:v>80</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="n">
+      <x:c r="C11" s="0">
         <x:v>143</x:v>
       </x:c>
     </x:row>
@@ -1792,112 +1792,112 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="0" t="n">
+      <x:c r="A2" s="0">
         <x:v>81</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="C2" s="0">
         <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="0">
         <x:v>82</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="n">
+      <x:c r="C3" s="0">
         <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="0" t="n">
+      <x:c r="A4" s="0">
         <x:v>83</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="n">
+      <x:c r="C4" s="0">
         <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="A5" s="0" t="n">
+      <x:c r="A5" s="0">
         <x:v>84</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="n">
+      <x:c r="C5" s="0">
         <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
-      <x:c r="A6" s="0" t="n">
+      <x:c r="A6" s="0">
         <x:v>85</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="n">
+      <x:c r="C6" s="0">
         <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="A7" s="0" t="n">
+      <x:c r="A7" s="0">
         <x:v>86</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="n">
+      <x:c r="C7" s="0">
         <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="A8" s="0" t="n">
+      <x:c r="A8" s="0">
         <x:v>87</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="n">
+      <x:c r="C8" s="0">
         <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
-      <x:c r="A9" s="0" t="n">
+      <x:c r="A9" s="0">
         <x:v>88</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="n">
+      <x:c r="C9" s="0">
         <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
-      <x:c r="A10" s="0" t="n">
+      <x:c r="A10" s="0">
         <x:v>89</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="n">
+      <x:c r="C10" s="0">
         <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
-      <x:c r="A11" s="0" t="n">
+      <x:c r="A11" s="0">
         <x:v>90</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="n">
+      <x:c r="C11" s="0">
         <x:v>163</x:v>
       </x:c>
     </x:row>
